--- a/attendance-files/SIP/SIP (C) Attendance Sheet.xlsx
+++ b/attendance-files/SIP/SIP (C) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="170">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="F7" s="32">
         <f t="shared" ref="F7:F95" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7" s="33" t="s">
         <v>20</v>
@@ -1656,8 +1656,12 @@
       <c r="H7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
+      <c r="I7" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K7" s="34"/>
       <c r="L7" s="35"/>
       <c r="M7" s="35"/>
@@ -1692,20 +1696,24 @@
       </c>
       <c r="E8" s="31">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>20</v>
       </c>
       <c r="H8" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
+      <c r="I8" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K8" s="41"/>
       <c r="L8" s="42"/>
       <c r="M8" s="42"/>
@@ -1740,20 +1748,24 @@
       </c>
       <c r="E9" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="39">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G9" s="33" t="s">
-        <v>20</v>
+      <c r="G9" s="40" t="s">
+        <v>23</v>
       </c>
       <c r="H9" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
+      <c r="I9" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K9" s="41"/>
       <c r="L9" s="42"/>
       <c r="M9" s="42"/>
@@ -1792,7 +1804,7 @@
       </c>
       <c r="F10" s="39">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" s="33" t="s">
         <v>20</v>
@@ -1800,8 +1812,12 @@
       <c r="H10" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
+      <c r="I10" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K10" s="41"/>
       <c r="L10" s="42"/>
       <c r="M10" s="42"/>
@@ -1840,7 +1856,7 @@
       </c>
       <c r="F11" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11" s="33" t="s">
         <v>20</v>
@@ -1848,8 +1864,12 @@
       <c r="H11" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
+      <c r="I11" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K11" s="41"/>
       <c r="L11" s="42"/>
       <c r="M11" s="42"/>
@@ -1888,7 +1908,7 @@
       </c>
       <c r="F12" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12" s="33" t="s">
         <v>20</v>
@@ -1896,8 +1916,12 @@
       <c r="H12" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
+      <c r="I12" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K12" s="41"/>
       <c r="L12" s="42"/>
       <c r="M12" s="42"/>
@@ -1936,7 +1960,7 @@
       </c>
       <c r="F13" s="39">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13" s="40" t="s">
         <v>23</v>
@@ -1944,8 +1968,12 @@
       <c r="H13" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
+      <c r="I13" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K13" s="41"/>
       <c r="L13" s="42"/>
       <c r="M13" s="42"/>
@@ -1980,11 +2008,11 @@
       </c>
       <c r="E14" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" s="33" t="s">
         <v>20</v>
@@ -1992,8 +2020,12 @@
       <c r="H14" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
+      <c r="I14" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K14" s="41"/>
       <c r="L14" s="42"/>
       <c r="M14" s="42"/>
@@ -2028,11 +2060,11 @@
       </c>
       <c r="E15" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" s="33" t="s">
         <v>20</v>
@@ -2040,8 +2072,12 @@
       <c r="H15" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
+      <c r="I15" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K15" s="41"/>
       <c r="L15" s="42"/>
       <c r="M15" s="42"/>
@@ -2080,7 +2116,7 @@
       </c>
       <c r="F16" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16" s="33" t="s">
         <v>20</v>
@@ -2088,8 +2124,12 @@
       <c r="H16" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
+      <c r="I16" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K16" s="41"/>
       <c r="L16" s="42"/>
       <c r="M16" s="42"/>
@@ -2128,7 +2168,7 @@
       </c>
       <c r="F17" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G17" s="33" t="s">
         <v>20</v>
@@ -2136,8 +2176,12 @@
       <c r="H17" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
+      <c r="I17" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K17" s="41"/>
       <c r="L17" s="42"/>
       <c r="M17" s="42"/>
@@ -2176,7 +2220,7 @@
       </c>
       <c r="F18" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18" s="33" t="s">
         <v>20</v>
@@ -2184,8 +2228,12 @@
       <c r="H18" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
+      <c r="I18" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K18" s="41"/>
       <c r="L18" s="42"/>
       <c r="M18" s="42"/>
@@ -2224,7 +2272,7 @@
       </c>
       <c r="F19" s="39">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19" s="40" t="s">
         <v>23</v>
@@ -2232,8 +2280,12 @@
       <c r="H19" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
+      <c r="I19" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K19" s="41"/>
       <c r="L19" s="42"/>
       <c r="M19" s="42"/>
@@ -2272,7 +2324,7 @@
       </c>
       <c r="F20" s="39">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20" s="33" t="s">
         <v>20</v>
@@ -2280,8 +2332,12 @@
       <c r="H20" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
+      <c r="I20" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K20" s="41"/>
       <c r="L20" s="42"/>
       <c r="M20" s="42"/>
@@ -2320,7 +2376,7 @@
       </c>
       <c r="F21" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G21" s="33" t="s">
         <v>20</v>
@@ -2328,8 +2384,12 @@
       <c r="H21" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
+      <c r="I21" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K21" s="41"/>
       <c r="L21" s="42"/>
       <c r="M21" s="42"/>
@@ -2368,7 +2428,7 @@
       </c>
       <c r="F22" s="39">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22" s="40" t="s">
         <v>23</v>
@@ -2376,8 +2436,12 @@
       <c r="H22" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
+      <c r="I22" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K22" s="41"/>
       <c r="L22" s="42"/>
       <c r="M22" s="42"/>
@@ -2412,11 +2476,11 @@
       </c>
       <c r="E23" s="31">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23" s="39">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" s="33" t="s">
         <v>20</v>
@@ -2424,8 +2488,12 @@
       <c r="H23" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
+      <c r="I23" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="40" t="s">
+        <v>23</v>
+      </c>
       <c r="K23" s="41"/>
       <c r="L23" s="42"/>
       <c r="M23" s="42"/>
@@ -2464,7 +2532,7 @@
       </c>
       <c r="F24" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24" s="40" t="s">
         <v>23</v>
@@ -2472,8 +2540,12 @@
       <c r="H24" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
+      <c r="I24" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K24" s="41"/>
       <c r="L24" s="42"/>
       <c r="M24" s="42"/>
@@ -2512,7 +2584,7 @@
       </c>
       <c r="F25" s="39">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G25" s="40" t="s">
         <v>23</v>
@@ -2520,8 +2592,12 @@
       <c r="H25" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
+      <c r="I25" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K25" s="41"/>
       <c r="L25" s="42"/>
       <c r="M25" s="42"/>
@@ -2560,7 +2636,7 @@
       </c>
       <c r="F26" s="39">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G26" s="33" t="s">
         <v>20</v>
@@ -2568,8 +2644,12 @@
       <c r="H26" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
+      <c r="I26" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K26" s="41"/>
       <c r="L26" s="42"/>
       <c r="M26" s="42"/>
@@ -2608,7 +2688,7 @@
       </c>
       <c r="F27" s="39">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27" s="40" t="s">
         <v>23</v>
@@ -2616,8 +2696,12 @@
       <c r="H27" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
+      <c r="I27" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K27" s="41"/>
       <c r="L27" s="42"/>
       <c r="M27" s="42"/>
@@ -2656,7 +2740,7 @@
       </c>
       <c r="F28" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G28" s="33" t="s">
         <v>20</v>
@@ -2664,8 +2748,12 @@
       <c r="H28" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
+      <c r="I28" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K28" s="41"/>
       <c r="L28" s="42"/>
       <c r="M28" s="42"/>
@@ -2704,7 +2792,7 @@
       </c>
       <c r="F29" s="39">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G29" s="33" t="s">
         <v>20</v>
@@ -2712,8 +2800,12 @@
       <c r="H29" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
+      <c r="I29" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K29" s="41"/>
       <c r="L29" s="42"/>
       <c r="M29" s="42"/>
@@ -2752,7 +2844,7 @@
       </c>
       <c r="F30" s="39">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G30" s="33" t="s">
         <v>20</v>
@@ -2760,8 +2852,12 @@
       <c r="H30" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
+      <c r="I30" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K30" s="41"/>
       <c r="L30" s="42"/>
       <c r="M30" s="42"/>
@@ -2800,7 +2896,7 @@
       </c>
       <c r="F31" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G31" s="33" t="s">
         <v>20</v>
@@ -2808,8 +2904,12 @@
       <c r="H31" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
+      <c r="I31" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K31" s="41"/>
       <c r="L31" s="42"/>
       <c r="M31" s="42"/>
@@ -2848,7 +2948,7 @@
       </c>
       <c r="F32" s="39">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G32" s="33" t="s">
         <v>20</v>
@@ -2856,8 +2956,12 @@
       <c r="H32" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
+      <c r="I32" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K32" s="41"/>
       <c r="L32" s="42"/>
       <c r="M32" s="42"/>
@@ -2896,7 +3000,7 @@
       </c>
       <c r="F33" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G33" s="40" t="s">
         <v>23</v>
@@ -2904,8 +3008,12 @@
       <c r="H33" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
+      <c r="I33" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K33" s="41"/>
       <c r="L33" s="42"/>
       <c r="M33" s="42"/>
@@ -2944,7 +3052,7 @@
       </c>
       <c r="F34" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G34" s="33" t="s">
         <v>20</v>
@@ -2952,8 +3060,12 @@
       <c r="H34" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
+      <c r="I34" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K34" s="41"/>
       <c r="L34" s="42"/>
       <c r="M34" s="42"/>
@@ -2992,7 +3104,7 @@
       </c>
       <c r="F35" s="39">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G35" s="33" t="s">
         <v>20</v>
@@ -3000,8 +3112,12 @@
       <c r="H35" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
+      <c r="I35" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K35" s="41"/>
       <c r="L35" s="42"/>
       <c r="M35" s="42"/>
@@ -3040,7 +3156,7 @@
       </c>
       <c r="F36" s="39">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G36" s="40" t="s">
         <v>23</v>
@@ -3048,8 +3164,12 @@
       <c r="H36" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
+      <c r="I36" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K36" s="41"/>
       <c r="L36" s="42"/>
       <c r="M36" s="42"/>
@@ -3088,7 +3208,7 @@
       </c>
       <c r="F37" s="39">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G37" s="33" t="s">
         <v>20</v>
@@ -3096,8 +3216,12 @@
       <c r="H37" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
+      <c r="I37" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K37" s="41"/>
       <c r="L37" s="42"/>
       <c r="M37" s="42"/>
@@ -3136,7 +3260,7 @@
       </c>
       <c r="F38" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G38" s="33" t="s">
         <v>20</v>
@@ -3144,8 +3268,12 @@
       <c r="H38" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
+      <c r="I38" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K38" s="41"/>
       <c r="L38" s="42"/>
       <c r="M38" s="42"/>
@@ -3184,7 +3312,7 @@
       </c>
       <c r="F39" s="39">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G39" s="40" t="s">
         <v>23</v>
@@ -3192,8 +3320,12 @@
       <c r="H39" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
+      <c r="I39" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K39" s="41"/>
       <c r="L39" s="42"/>
       <c r="M39" s="42"/>
@@ -3228,11 +3360,11 @@
       </c>
       <c r="E40" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G40" s="33" t="s">
         <v>20</v>
@@ -3240,8 +3372,12 @@
       <c r="H40" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
+      <c r="I40" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K40" s="41"/>
       <c r="L40" s="42"/>
       <c r="M40" s="42"/>
@@ -3280,7 +3416,7 @@
       </c>
       <c r="F41" s="39">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G41" s="33" t="s">
         <v>20</v>
@@ -3288,8 +3424,12 @@
       <c r="H41" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
+      <c r="I41" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K41" s="41"/>
       <c r="L41" s="42"/>
       <c r="M41" s="42"/>
@@ -3328,7 +3468,7 @@
       </c>
       <c r="F42" s="39">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G42" s="33" t="s">
         <v>20</v>
@@ -3336,8 +3476,12 @@
       <c r="H42" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
+      <c r="I42" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K42" s="41"/>
       <c r="L42" s="42"/>
       <c r="M42" s="42"/>
@@ -3376,7 +3520,7 @@
       </c>
       <c r="F43" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G43" s="33" t="s">
         <v>20</v>
@@ -3384,8 +3528,12 @@
       <c r="H43" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
+      <c r="I43" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K43" s="41"/>
       <c r="L43" s="42"/>
       <c r="M43" s="42"/>
@@ -3424,7 +3572,7 @@
       </c>
       <c r="F44" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G44" s="33" t="s">
         <v>20</v>
@@ -3432,8 +3580,12 @@
       <c r="H44" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
+      <c r="I44" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K44" s="41"/>
       <c r="L44" s="42"/>
       <c r="M44" s="42"/>
@@ -3472,7 +3624,7 @@
       </c>
       <c r="F45" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G45" s="33" t="s">
         <v>20</v>
@@ -3480,8 +3632,12 @@
       <c r="H45" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
+      <c r="I45" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K45" s="41"/>
       <c r="L45" s="42"/>
       <c r="M45" s="42"/>
@@ -3520,7 +3676,7 @@
       </c>
       <c r="F46" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G46" s="33" t="s">
         <v>20</v>
@@ -3528,8 +3684,12 @@
       <c r="H46" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
+      <c r="I46" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K46" s="41"/>
       <c r="L46" s="42"/>
       <c r="M46" s="42"/>
@@ -3568,7 +3728,7 @@
       </c>
       <c r="F47" s="39">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G47" s="33" t="s">
         <v>20</v>
@@ -3576,8 +3736,12 @@
       <c r="H47" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
+      <c r="I47" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K47" s="41"/>
       <c r="L47" s="42"/>
       <c r="M47" s="42"/>
@@ -3616,7 +3780,7 @@
       </c>
       <c r="F48" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G48" s="33" t="s">
         <v>20</v>
@@ -3624,8 +3788,12 @@
       <c r="H48" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
+      <c r="I48" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K48" s="41"/>
       <c r="L48" s="42"/>
       <c r="M48" s="42"/>
@@ -3664,7 +3832,7 @@
       </c>
       <c r="F49" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G49" s="33" t="s">
         <v>20</v>
@@ -3672,8 +3840,12 @@
       <c r="H49" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
+      <c r="I49" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K49" s="41"/>
       <c r="L49" s="42"/>
       <c r="M49" s="42"/>
@@ -3712,7 +3884,7 @@
       </c>
       <c r="F50" s="39">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G50" s="33" t="s">
         <v>20</v>
@@ -3720,8 +3892,12 @@
       <c r="H50" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
+      <c r="I50" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K50" s="41"/>
       <c r="L50" s="42"/>
       <c r="M50" s="42"/>
@@ -3760,7 +3936,7 @@
       </c>
       <c r="F51" s="39">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G51" s="33" t="s">
         <v>20</v>
@@ -3768,8 +3944,12 @@
       <c r="H51" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
+      <c r="I51" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K51" s="41"/>
       <c r="L51" s="42"/>
       <c r="M51" s="42"/>
@@ -3808,7 +3988,7 @@
       </c>
       <c r="F52" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G52" s="33" t="s">
         <v>20</v>
@@ -3816,8 +3996,12 @@
       <c r="H52" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
+      <c r="I52" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K52" s="41"/>
       <c r="L52" s="42"/>
       <c r="M52" s="42"/>
@@ -3856,7 +4040,7 @@
       </c>
       <c r="F53" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G53" s="33" t="s">
         <v>20</v>
@@ -3864,8 +4048,12 @@
       <c r="H53" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
+      <c r="I53" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K53" s="41"/>
       <c r="L53" s="42"/>
       <c r="M53" s="42"/>
@@ -3900,11 +4088,11 @@
       </c>
       <c r="E54" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G54" s="33" t="s">
         <v>20</v>
@@ -3912,8 +4100,12 @@
       <c r="H54" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I54" s="41"/>
-      <c r="J54" s="41"/>
+      <c r="I54" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J54" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K54" s="41"/>
       <c r="L54" s="42"/>
       <c r="M54" s="42"/>
@@ -3948,11 +4140,11 @@
       </c>
       <c r="E55" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G55" s="33" t="s">
         <v>20</v>
@@ -3960,8 +4152,12 @@
       <c r="H55" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I55" s="41"/>
-      <c r="J55" s="41"/>
+      <c r="I55" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J55" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K55" s="41"/>
       <c r="L55" s="42"/>
       <c r="M55" s="42"/>
@@ -4000,7 +4196,7 @@
       </c>
       <c r="F56" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G56" s="33" t="s">
         <v>20</v>
@@ -4008,8 +4204,12 @@
       <c r="H56" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I56" s="41"/>
-      <c r="J56" s="41"/>
+      <c r="I56" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K56" s="41"/>
       <c r="L56" s="42"/>
       <c r="M56" s="42"/>
@@ -4048,7 +4248,7 @@
       </c>
       <c r="F57" s="39">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G57" s="33" t="s">
         <v>20</v>
@@ -4056,8 +4256,12 @@
       <c r="H57" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
+      <c r="I57" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K57" s="41"/>
       <c r="L57" s="42"/>
       <c r="M57" s="42"/>
@@ -4096,7 +4300,7 @@
       </c>
       <c r="F58" s="39">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G58" s="33" t="s">
         <v>20</v>
@@ -4104,8 +4308,12 @@
       <c r="H58" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I58" s="41"/>
-      <c r="J58" s="41"/>
+      <c r="I58" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K58" s="41"/>
       <c r="L58" s="42"/>
       <c r="M58" s="42"/>
@@ -4144,7 +4352,7 @@
       </c>
       <c r="F59" s="39">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G59" s="33" t="s">
         <v>20</v>
@@ -4152,8 +4360,12 @@
       <c r="H59" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I59" s="41"/>
-      <c r="J59" s="41"/>
+      <c r="I59" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J59" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K59" s="41"/>
       <c r="L59" s="42"/>
       <c r="M59" s="42"/>
@@ -4192,7 +4404,7 @@
       </c>
       <c r="F60" s="39">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G60" s="33" t="s">
         <v>20</v>
@@ -4200,8 +4412,12 @@
       <c r="H60" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I60" s="41"/>
-      <c r="J60" s="41"/>
+      <c r="I60" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K60" s="41"/>
       <c r="L60" s="42"/>
       <c r="M60" s="42"/>
@@ -4236,11 +4452,11 @@
       </c>
       <c r="E61" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G61" s="33" t="s">
         <v>20</v>
@@ -4248,8 +4464,12 @@
       <c r="H61" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I61" s="41"/>
-      <c r="J61" s="41"/>
+      <c r="I61" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J61" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K61" s="41"/>
       <c r="L61" s="42"/>
       <c r="M61" s="42"/>
@@ -4288,7 +4508,7 @@
       </c>
       <c r="F62" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G62" s="33" t="s">
         <v>20</v>
@@ -4296,8 +4516,12 @@
       <c r="H62" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I62" s="41"/>
-      <c r="J62" s="41"/>
+      <c r="I62" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K62" s="41"/>
       <c r="L62" s="42"/>
       <c r="M62" s="42"/>
@@ -4332,7 +4556,7 @@
       </c>
       <c r="E63" s="31">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F63" s="39">
         <f t="shared" si="2"/>
@@ -4344,8 +4568,12 @@
       <c r="H63" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I63" s="41"/>
-      <c r="J63" s="41"/>
+      <c r="I63" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J63" s="40" t="s">
+        <v>23</v>
+      </c>
       <c r="K63" s="41"/>
       <c r="L63" s="42"/>
       <c r="M63" s="42"/>
@@ -4384,7 +4612,7 @@
       </c>
       <c r="F64" s="39">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G64" s="33" t="s">
         <v>20</v>
@@ -4392,8 +4620,12 @@
       <c r="H64" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I64" s="41"/>
-      <c r="J64" s="41"/>
+      <c r="I64" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K64" s="41"/>
       <c r="L64" s="42"/>
       <c r="M64" s="42"/>
@@ -4432,7 +4664,7 @@
       </c>
       <c r="F65" s="39">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G65" s="40" t="s">
         <v>23</v>
@@ -4440,8 +4672,12 @@
       <c r="H65" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I65" s="41"/>
-      <c r="J65" s="41"/>
+      <c r="I65" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K65" s="41"/>
       <c r="L65" s="42"/>
       <c r="M65" s="42"/>
@@ -4476,11 +4712,11 @@
       </c>
       <c r="E66" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G66" s="33" t="s">
         <v>20</v>
@@ -4488,8 +4724,12 @@
       <c r="H66" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I66" s="41"/>
-      <c r="J66" s="41"/>
+      <c r="I66" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J66" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K66" s="41"/>
       <c r="L66" s="42"/>
       <c r="M66" s="42"/>
@@ -4528,7 +4768,7 @@
       </c>
       <c r="F67" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G67" s="33" t="s">
         <v>20</v>
@@ -4536,8 +4776,12 @@
       <c r="H67" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I67" s="41"/>
-      <c r="J67" s="41"/>
+      <c r="I67" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K67" s="41"/>
       <c r="L67" s="42"/>
       <c r="M67" s="42"/>
@@ -4576,7 +4820,7 @@
       </c>
       <c r="F68" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G68" s="33" t="s">
         <v>20</v>
@@ -4584,8 +4828,12 @@
       <c r="H68" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I68" s="41"/>
-      <c r="J68" s="41"/>
+      <c r="I68" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J68" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K68" s="41"/>
       <c r="L68" s="42"/>
       <c r="M68" s="42"/>
@@ -4620,11 +4868,11 @@
       </c>
       <c r="E69" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G69" s="33" t="s">
         <v>20</v>
@@ -4632,8 +4880,12 @@
       <c r="H69" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I69" s="41"/>
-      <c r="J69" s="41"/>
+      <c r="I69" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J69" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K69" s="41"/>
       <c r="L69" s="42"/>
       <c r="M69" s="42"/>
@@ -4672,7 +4924,7 @@
       </c>
       <c r="F70" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G70" s="40" t="s">
         <v>23</v>
@@ -4680,8 +4932,12 @@
       <c r="H70" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I70" s="41"/>
-      <c r="J70" s="41"/>
+      <c r="I70" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J70" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K70" s="41"/>
       <c r="L70" s="42"/>
       <c r="M70" s="42"/>
@@ -4720,7 +4976,7 @@
       </c>
       <c r="F71" s="39">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G71" s="33" t="s">
         <v>20</v>
@@ -4728,8 +4984,12 @@
       <c r="H71" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I71" s="41"/>
-      <c r="J71" s="41"/>
+      <c r="I71" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K71" s="41"/>
       <c r="L71" s="42"/>
       <c r="M71" s="42"/>
@@ -4768,7 +5028,7 @@
       </c>
       <c r="F72" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G72" s="33" t="s">
         <v>20</v>
@@ -4776,8 +5036,12 @@
       <c r="H72" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I72" s="41"/>
-      <c r="J72" s="41"/>
+      <c r="I72" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J72" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K72" s="41"/>
       <c r="L72" s="42"/>
       <c r="M72" s="42"/>
@@ -4812,11 +5076,11 @@
       </c>
       <c r="E73" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G73" s="33" t="s">
         <v>20</v>
@@ -4824,8 +5088,12 @@
       <c r="H73" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I73" s="41"/>
-      <c r="J73" s="41"/>
+      <c r="I73" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J73" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K73" s="41"/>
       <c r="L73" s="42"/>
       <c r="M73" s="42"/>
@@ -4860,11 +5128,11 @@
       </c>
       <c r="E74" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G74" s="33" t="s">
         <v>20</v>
@@ -4872,8 +5140,12 @@
       <c r="H74" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I74" s="41"/>
-      <c r="J74" s="41"/>
+      <c r="I74" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J74" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K74" s="41"/>
       <c r="L74" s="42"/>
       <c r="M74" s="42"/>
@@ -4908,11 +5180,11 @@
       </c>
       <c r="E75" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G75" s="33" t="s">
         <v>20</v>
@@ -4920,8 +5192,12 @@
       <c r="H75" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I75" s="41"/>
-      <c r="J75" s="41"/>
+      <c r="I75" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J75" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K75" s="41"/>
       <c r="L75" s="42"/>
       <c r="M75" s="42"/>
@@ -4960,7 +5236,7 @@
       </c>
       <c r="F76" s="39">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G76" s="40" t="s">
         <v>23</v>
@@ -4968,8 +5244,12 @@
       <c r="H76" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I76" s="41"/>
-      <c r="J76" s="41"/>
+      <c r="I76" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J76" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K76" s="41"/>
       <c r="L76" s="42"/>
       <c r="M76" s="42"/>
@@ -5008,7 +5288,7 @@
       </c>
       <c r="F77" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G77" s="33" t="s">
         <v>20</v>
@@ -5016,8 +5296,12 @@
       <c r="H77" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I77" s="41"/>
-      <c r="J77" s="41"/>
+      <c r="I77" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J77" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K77" s="41"/>
       <c r="L77" s="42"/>
       <c r="M77" s="42"/>
@@ -5056,7 +5340,7 @@
       </c>
       <c r="F78" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G78" s="33" t="s">
         <v>20</v>
@@ -5064,8 +5348,12 @@
       <c r="H78" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I78" s="41"/>
-      <c r="J78" s="41"/>
+      <c r="I78" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J78" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K78" s="41"/>
       <c r="L78" s="42"/>
       <c r="M78" s="42"/>
@@ -5100,11 +5388,11 @@
       </c>
       <c r="E79" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G79" s="33" t="s">
         <v>20</v>
@@ -5112,8 +5400,12 @@
       <c r="H79" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I79" s="41"/>
-      <c r="J79" s="41"/>
+      <c r="I79" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J79" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K79" s="41"/>
       <c r="L79" s="42"/>
       <c r="M79" s="42"/>
@@ -5152,7 +5444,7 @@
       </c>
       <c r="F80" s="39">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G80" s="40" t="s">
         <v>23</v>
@@ -5160,8 +5452,12 @@
       <c r="H80" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I80" s="41"/>
-      <c r="J80" s="41"/>
+      <c r="I80" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J80" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K80" s="41"/>
       <c r="L80" s="42"/>
       <c r="M80" s="42"/>
@@ -5200,7 +5496,7 @@
       </c>
       <c r="F81" s="39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G81" s="33" t="s">
         <v>20</v>
@@ -5208,8 +5504,12 @@
       <c r="H81" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="I81" s="41"/>
-      <c r="J81" s="41"/>
+      <c r="I81" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J81" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K81" s="41"/>
       <c r="L81" s="42"/>
       <c r="M81" s="42"/>
